--- a/Invoices/P375173_Gordon.xlsx
+++ b/Invoices/P375173_Gordon.xlsx
@@ -480,10 +480,10 @@
         <v>92</v>
       </c>
       <c r="D2" t="n">
-        <v>300</v>
+        <v>1682</v>
       </c>
       <c r="E2" t="n">
-        <v>199</v>
+        <v>217.64</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
